--- a/EXPORTER_PORTAL_EDITORIAL_WORKFLOW/input_data/datapool/Exporter_Editorial_Workflow.xlsx
+++ b/EXPORTER_PORTAL_EDITORIAL_WORKFLOW/input_data/datapool/Exporter_Editorial_Workflow.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B9E7A-1ECC-435E-ACC6-0B08635C00E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE2996-FE8A-4ABB-A1CD-3FC1E481E0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1545,10 +1545,10 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2613,7 +2613,7 @@
         <v>89</v>
       </c>
       <c r="U16" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3978,7 +3978,7 @@
         <v>89</v>
       </c>
       <c r="U37" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
